--- a/Cache/Metrics/Metrics.xlsx
+++ b/Cache/Metrics/Metrics.xlsx
@@ -541,11 +541,11 @@
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>39.38</v>
+        <v>39.59</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Wed Jun 12 17:26:49 2024</t>
+          <t>Thu Jun 13 08:47:43 2024</t>
         </is>
       </c>
     </row>
@@ -560,7 +560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -671,20 +671,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BernoulliNB(alpha=1)</t>
+          <t>RandomForestClassifier()</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7673821429084587</v>
+        <v>0.7683253588516746</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7543260963960052</v>
+        <v>0.8329550586191924</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01485837740238304</v>
+        <v>0.02435033385987805</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03754085420231147</v>
+        <v>0.0146266557147158</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -743,20 +743,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>mean_classifier</t>
+          <t>KNeighborsClassifier(n_neighbors=20)</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7673821429084587</v>
+        <v>0.6843992557150451</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7543260963960052</v>
+        <v>0.8484459883244077</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01485837740238304</v>
+        <v>0.03452429237957232</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03754085420231147</v>
+        <v>0.006929826070852984</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -797,6 +797,414 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AdaBoostClassifier(algorithm='SAMME', learning_rate=1)</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7622169059011165</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8409233125874463</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.02999158647670358</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.01289061083875735</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>HRV_Heart_rate</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>HRV_MeanNN</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>HRV_SDNN</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>700</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>WESAD</t>
+        </is>
+      </c>
+      <c r="R4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier(max_depth=2)</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6477777777777778</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8119584599797366</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.03308113949591328</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.00583294529920401</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>HRV_Heart_rate</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>HRV_MeanNN</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>HRV_SDNN</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>700</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>WESAD</t>
+        </is>
+      </c>
+      <c r="R5" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SVC()</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7574401913875597</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8492543783470835</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.03557855856474591</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.01858333540622863</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>700</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>WESAD</t>
+        </is>
+      </c>
+      <c r="R6" t="b">
+        <v>1</v>
+      </c>
+      <c r="S6" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>LinearDiscriminantAnalysis()</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7442187163239795</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8365865055241954</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.04157821370232159</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.02094162707532396</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>HRV_Heart_rate</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>HRV_MeanNN</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>HRV_SDNN</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>700</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>WESAD</t>
+        </is>
+      </c>
+      <c r="R7" t="b">
+        <v>1</v>
+      </c>
+      <c r="S7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BernoulliNB(alpha=1)</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7673821429084587</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7543260963960052</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.01485837740238304</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.03754085420231147</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>HRV_Heart_rate</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>HRV_MeanNN</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>HRV_SDNN</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>700</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>WESAD</t>
+        </is>
+      </c>
+      <c r="R8" t="b">
+        <v>1</v>
+      </c>
+      <c r="S8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>mean_classifier</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.733108621266516</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8249213999682953</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.03056607169735969</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.01676369351534203</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>700</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>WESAD</t>
+        </is>
+      </c>
+      <c r="R9" t="b">
+        <v>1</v>
+      </c>
+      <c r="S9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T9" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Cache/Metrics/Metrics.xlsx
+++ b/Cache/Metrics/Metrics.xlsx
@@ -541,11 +541,11 @@
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>39.59</v>
+        <v>41.89</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Thu Jun 13 08:47:43 2024</t>
+          <t>Thu Jun 13 09:43:18 2024</t>
         </is>
       </c>
     </row>
@@ -675,16 +675,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7683253588516746</v>
+        <v>0.7690749601275917</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8329550586191924</v>
+        <v>0.8382044917257685</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02435033385987805</v>
+        <v>0.02819443592306852</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0146266557147158</v>
+        <v>0.01190245340271399</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.6843992557150451</v>
+        <v>0.689688995215311</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8484459883244077</v>
+        <v>0.8526092536305302</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03452429237957232</v>
+        <v>0.03779226704211595</v>
       </c>
       <c r="F3" t="n">
-        <v>0.006929826070852984</v>
+        <v>0.007126726723949655</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -807,16 +807,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.7622169059011165</v>
+        <v>0.7735648088279666</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8409233125874463</v>
+        <v>0.8410651083128287</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02999158647670358</v>
+        <v>0.03039489157843034</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01289061083875735</v>
+        <v>0.0164450237617466</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -951,16 +951,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.7574401913875597</v>
+        <v>0.7526227423595844</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8492543783470835</v>
+        <v>0.8111313986587543</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03557855856474591</v>
+        <v>0.03521451722788135</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01858333540622863</v>
+        <v>0.0359631510967884</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
@@ -1011,16 +1011,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.7442187163239795</v>
+        <v>0.7321375921375921</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8365865055241954</v>
+        <v>0.8112815168620638</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04157821370232159</v>
+        <v>0.04388543384855294</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02094162707532396</v>
+        <v>0.03639994685003915</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
         <v>0.7543260963960052</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01485837740238304</v>
+        <v>0.01518155376434057</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03754085420231147</v>
+        <v>0.0383183080409898</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1155,16 +1155,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.733108621266516</v>
+        <v>0.7331784313363261</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8249213999682953</v>
+        <v>0.8172251893665268</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03056607169735969</v>
+        <v>0.03196346269718613</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01676369351534203</v>
+        <v>0.02171265073934737</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>

--- a/Cache/Metrics/Metrics.xlsx
+++ b/Cache/Metrics/Metrics.xlsx
@@ -535,17 +535,17 @@
         <v>1</v>
       </c>
       <c r="K2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>41.89</v>
+        <v>173.03</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Thu Jun 13 09:43:18 2024</t>
+          <t>Thu Jun 13 12:57:08 2024</t>
         </is>
       </c>
     </row>
@@ -560,7 +560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,80 +586,90 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Balanced_variance</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Regular_variance</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score_variance</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Most important feature</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Second most important feature</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Third most important feature</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Sampling frequency</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ECG used</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>EMG used</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>EDA used</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>EEG used</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>RR used</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Timeframes length</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Dataset used</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Two_label</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Neural used</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Classifiers used</t>
         </is>
@@ -671,47 +681,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RandomForestClassifier()</t>
+          <t>Neural</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7690749601275917</v>
+        <v>0.7315155825682141</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8382044917257685</v>
+        <v>0.8381466685965167</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02819443592306852</v>
+        <v>0.809817205346695</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01190245340271399</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>HRV_Heart_rate</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>HRV_MeanNN</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>HRV_SDNN</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
+        <v>0.03218354848778666</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.01183778954466824</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.01466879757447906</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="n">
         <v>700</v>
       </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
       <c r="M2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
@@ -719,21 +717,27 @@
       <c r="O2" t="b">
         <v>0</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>60</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>WESAD</t>
         </is>
       </c>
-      <c r="R2" t="b">
-        <v>1</v>
-      </c>
-      <c r="S2" t="b">
-        <v>0</v>
-      </c>
       <c r="T2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -743,35 +747,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>KNeighborsClassifier(n_neighbors=20)</t>
+          <t>RandomForestClassifier()</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.689688995215311</v>
+        <v>0.7588516746411483</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8526092536305302</v>
+        <v>0.8221512037439089</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03779226704211595</v>
+        <v>0.804647538629467</v>
       </c>
       <c r="F3" t="n">
-        <v>0.007126726723949655</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
+        <v>0.02641943484199843</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.01936583307049754</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.02041373053610146</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>HRV_Heart_rate</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>HRV_MeanNN</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>HRV_SDNN</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
         <v>700</v>
       </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="b">
-        <v>0</v>
-      </c>
       <c r="M3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
@@ -779,21 +795,27 @@
       <c r="O3" t="b">
         <v>0</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>60</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>WESAD</t>
         </is>
       </c>
-      <c r="R3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S3" t="b">
-        <v>0</v>
-      </c>
       <c r="T3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -803,47 +825,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AdaBoostClassifier(algorithm='SAMME', learning_rate=1)</t>
+          <t>KNeighborsClassifier(n_neighbors=20)</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.7735648088279666</v>
+        <v>0.689688995215311</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8410651083128287</v>
+        <v>0.8526092536305302</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03039489157843034</v>
+        <v>0.8100050799607031</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0164450237617466</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>HRV_Heart_rate</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>HRV_MeanNN</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>HRV_SDNN</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
+        <v>0.03779226704211595</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.007126726723949655</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.01380952549704152</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
         <v>700</v>
       </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="b">
-        <v>0</v>
-      </c>
       <c r="M4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
@@ -851,21 +861,27 @@
       <c r="O4" t="b">
         <v>0</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>60</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>WESAD</t>
         </is>
       </c>
-      <c r="R4" t="b">
-        <v>1</v>
-      </c>
-      <c r="S4" t="b">
-        <v>0</v>
-      </c>
       <c r="T4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -875,47 +891,47 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DecisionTreeClassifier(max_depth=2)</t>
+          <t>AdaBoostClassifier(algorithm='SAMME', learning_rate=1)</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.6477777777777778</v>
+        <v>0.7735648088279666</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8119584599797366</v>
+        <v>0.8410651083128287</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03308113949591328</v>
+        <v>0.8252059453911008</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00583294529920401</v>
-      </c>
-      <c r="G5" t="inlineStr">
+        <v>0.03039489157843034</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0164450237617466</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.01724679907681415</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>HRV_Heart_rate</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>HRV_MeanNN</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>HRV_SDNN</t>
         </is>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>700</v>
       </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" t="b">
-        <v>0</v>
-      </c>
       <c r="M5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -923,21 +939,27 @@
       <c r="O5" t="b">
         <v>0</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
         <v>60</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>WESAD</t>
         </is>
       </c>
-      <c r="R5" t="b">
-        <v>1</v>
-      </c>
-      <c r="S5" t="b">
-        <v>0</v>
-      </c>
       <c r="T5" t="b">
+        <v>1</v>
+      </c>
+      <c r="U5" t="b">
+        <v>1</v>
+      </c>
+      <c r="V5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -947,35 +969,47 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SVC()</t>
+          <t>DecisionTreeClassifier(max_depth=2)</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.7526227423595844</v>
+        <v>0.6477777777777778</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8111313986587543</v>
+        <v>0.8119584599797366</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03521451722788135</v>
+        <v>0.7597065399318077</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0359631510967884</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
+        <v>0.03308113949591328</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.00583294529920401</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.01028454193751679</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>HRV_Heart_rate</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>HRV_MeanNN</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>HRV_SDNN</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
         <v>700</v>
       </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" t="b">
-        <v>0</v>
-      </c>
       <c r="M6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="b">
         <v>0</v>
@@ -983,21 +1017,27 @@
       <c r="O6" t="b">
         <v>0</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>60</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>WESAD</t>
         </is>
       </c>
-      <c r="R6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S6" t="b">
-        <v>0</v>
-      </c>
       <c r="T6" t="b">
+        <v>1</v>
+      </c>
+      <c r="U6" t="b">
+        <v>1</v>
+      </c>
+      <c r="V6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1007,47 +1047,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LinearDiscriminantAnalysis()</t>
+          <t>SVC()</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.7321375921375921</v>
+        <v>0.7526227423595844</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8112815168620638</v>
+        <v>0.8111313986587543</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04388543384855294</v>
+        <v>0.7957509785497401</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03639994685003915</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>HRV_Heart_rate</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>HRV_MeanNN</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>HRV_SDNN</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
+        <v>0.03521451722788135</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0359631510967884</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.03951151000494078</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
         <v>700</v>
       </c>
-      <c r="K7" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" t="b">
-        <v>0</v>
-      </c>
       <c r="M7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="b">
         <v>0</v>
@@ -1055,21 +1083,27 @@
       <c r="O7" t="b">
         <v>0</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>60</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>WESAD</t>
         </is>
       </c>
-      <c r="R7" t="b">
-        <v>1</v>
-      </c>
-      <c r="S7" t="b">
-        <v>0</v>
-      </c>
       <c r="T7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1079,47 +1113,47 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BernoulliNB(alpha=1)</t>
+          <t>LinearDiscriminantAnalysis()</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.7673821429084587</v>
+        <v>0.7321375921375921</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7543260963960052</v>
+        <v>0.8112815168620638</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01518155376434057</v>
+        <v>0.7737402465321017</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0383183080409898</v>
-      </c>
-      <c r="G8" t="inlineStr">
+        <v>0.04388543384855294</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.03639994685003915</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.05075361009459446</v>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>HRV_Heart_rate</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>HRV_MeanNN</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>HRV_SDNN</t>
         </is>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>700</v>
       </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" t="b">
-        <v>0</v>
-      </c>
       <c r="M8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
@@ -1127,21 +1161,27 @@
       <c r="O8" t="b">
         <v>0</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
         <v>60</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>WESAD</t>
         </is>
       </c>
-      <c r="R8" t="b">
-        <v>1</v>
-      </c>
-      <c r="S8" t="b">
-        <v>0</v>
-      </c>
       <c r="T8" t="b">
+        <v>1</v>
+      </c>
+      <c r="U8" t="b">
+        <v>1</v>
+      </c>
+      <c r="V8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1151,57 +1191,137 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>BernoulliNB(alpha=1)</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7673821429084587</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7543260963960052</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7572455884942553</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.01518155376434057</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0383183080409898</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.03476729389861423</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>HRV_Heart_rate</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>HRV_MeanNN</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>HRV_SDNN</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>700</v>
+      </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>60</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>WESAD</t>
+        </is>
+      </c>
+      <c r="T9" t="b">
+        <v>1</v>
+      </c>
+      <c r="U9" t="b">
+        <v>1</v>
+      </c>
+      <c r="V9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>mean_classifier</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>0.7331784313363261</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.8172251893665268</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.03196346269718613</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.02171265073934737</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
+      <c r="C10" t="n">
+        <v>0.7317179619811199</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8149318625119754</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0.03170989111417612</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.02277884783474502</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
         <v>700</v>
       </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" t="b">
-        <v>0</v>
-      </c>
-      <c r="N9" t="b">
-        <v>0</v>
-      </c>
-      <c r="O9" t="b">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>60</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>WESAD</t>
         </is>
       </c>
-      <c r="R9" t="b">
-        <v>1</v>
-      </c>
-      <c r="S9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T9" t="b">
+      <c r="T10" t="b">
+        <v>1</v>
+      </c>
+      <c r="U10" t="b">
+        <v>1</v>
+      </c>
+      <c r="V10" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Cache/Metrics/Metrics.xlsx
+++ b/Cache/Metrics/Metrics.xlsx
@@ -541,11 +541,11 @@
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>173.03</v>
+        <v>175.43</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Thu Jun 13 12:57:08 2024</t>
+          <t>Fri Jun 14 09:16:42 2024</t>
         </is>
       </c>
     </row>
@@ -685,22 +685,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7315155825682141</v>
+        <v>0.7807655502392344</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8381466685965167</v>
+        <v>0.8654992763062672</v>
       </c>
       <c r="E2" t="n">
-        <v>0.809817205346695</v>
+        <v>0.8446772437333867</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03218354848778666</v>
+        <v>0.03308619155544364</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01183778954466824</v>
+        <v>0.01084647168826111</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01466879757447906</v>
+        <v>0.01412131027824449</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -751,22 +751,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7588516746411483</v>
+        <v>0.7609651278072331</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8221512037439089</v>
+        <v>0.8315673035171515</v>
       </c>
       <c r="E3" t="n">
-        <v>0.804647538629467</v>
+        <v>0.8170782896058085</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02641943484199843</v>
+        <v>0.0229496894568243</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01936583307049754</v>
+        <v>0.01329428941344063</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02041373053610146</v>
+        <v>0.01357434309182065</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -1273,19 +1273,23 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.7317179619811199</v>
+        <v>0.7320198838619891</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8149318625119754</v>
-      </c>
-      <c r="E10" t="inlineStr"/>
+        <v>0.8162770196224385</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7912475240665025</v>
+      </c>
       <c r="F10" t="n">
-        <v>0.03170989111417612</v>
+        <v>0.03121421320200839</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02277884783474502</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
+        <v>0.02191148445516546</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.02570680337162037</v>
+      </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
